--- a/F_dataset/DUD-E/MAPK2/MAPK2_preprocessing/MAPK2_g1.xlsx
+++ b/F_dataset/DUD-E/MAPK2/MAPK2_preprocessing/MAPK2_g1.xlsx
@@ -604,7 +604,7 @@
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD61FF40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FB93E60&gt;</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -672,7 +672,7 @@
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD61FDF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FB93DF0&gt;</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -740,7 +740,7 @@
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD61FD80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FB93D80&gt;</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -808,7 +808,7 @@
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD61FD10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FB93D10&gt;</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -876,7 +876,7 @@
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD61FCA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FB93CA0&gt;</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -944,7 +944,7 @@
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD61FC30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FB93C30&gt;</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -1012,7 +1012,7 @@
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD61FBC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FB93BC0&gt;</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1080,7 +1080,7 @@
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD61FB50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FB93A00&gt;</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -1148,7 +1148,7 @@
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD61F990&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FB93990&gt;</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -1216,7 +1216,7 @@
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD61F920&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FB938B0&gt;</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -1284,7 +1284,7 @@
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD61F840&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FB93840&gt;</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
@@ -1352,7 +1352,7 @@
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD61F7D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FB936F0&gt;</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
@@ -1420,7 +1420,7 @@
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD61F680&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FB93610&gt;</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
@@ -1488,7 +1488,7 @@
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD61F5A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FB935A0&gt;</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -1556,7 +1556,7 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD61F530&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FB933E0&gt;</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
@@ -1624,7 +1624,7 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD61F370&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FB93300&gt;</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
@@ -1692,7 +1692,7 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD61F290&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FB93290&gt;</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -1760,7 +1760,7 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD61F220&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FB93F40&gt;</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
@@ -1828,7 +1828,7 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD61FED0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FB93ED0&gt;</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
@@ -1896,7 +1896,7 @@
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD61FE60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FB93B50&gt;</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -1964,7 +1964,7 @@
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD61FAE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FB93AE0&gt;</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
@@ -2032,7 +2032,7 @@
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD61FA70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FB93A70&gt;</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
@@ -2100,7 +2100,7 @@
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD61FA00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FB93920&gt;</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
@@ -2168,7 +2168,7 @@
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD61F8B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FB937D0&gt;</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
@@ -2236,7 +2236,7 @@
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD61F760&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FB93760&gt;</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
@@ -2304,7 +2304,7 @@
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD61F6F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FB93680&gt;</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
@@ -2372,7 +2372,7 @@
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD61F610&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FB93530&gt;</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
@@ -2440,7 +2440,7 @@
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD61F4C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FB934C0&gt;</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
@@ -2508,7 +2508,7 @@
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD61F450&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FB93450&gt;</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
@@ -2576,7 +2576,7 @@
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD61F3E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FB93370&gt;</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
@@ -2644,7 +2644,7 @@
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD61F300&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FB90270&gt;</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
@@ -2712,7 +2712,7 @@
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD61C200&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FB93220&gt;</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
@@ -2780,7 +2780,7 @@
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD61F1B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBE030&gt;</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
@@ -2848,7 +2848,7 @@
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD649FC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBDE70&gt;</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
@@ -2916,7 +2916,7 @@
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD649E00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBDE00&gt;</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
@@ -2984,7 +2984,7 @@
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD649D90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBDD90&gt;</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
@@ -3052,7 +3052,7 @@
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD649D20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBDD20&gt;</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
@@ -3120,7 +3120,7 @@
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD649CB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBDCB0&gt;</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
@@ -3188,7 +3188,7 @@
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD649C40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBDC40&gt;</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
@@ -3256,7 +3256,7 @@
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD649BD0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBDBD0&gt;</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
@@ -3324,7 +3324,7 @@
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD649B60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBDB60&gt;</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
@@ -3418,7 +3418,7 @@
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD649AF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBDA10&gt;</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
@@ -3512,7 +3512,7 @@
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD6499A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBD9A0&gt;</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
@@ -3606,7 +3606,7 @@
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD649930&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBD930&gt;</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
@@ -3700,7 +3700,7 @@
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD6498C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBD8C0&gt;</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
@@ -3794,7 +3794,7 @@
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD649850&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBD700&gt;</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
@@ -3888,7 +3888,7 @@
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD649690&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBD690&gt;</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
@@ -3982,7 +3982,7 @@
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD649620&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBD5B0&gt;</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
@@ -4076,7 +4076,7 @@
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD649540&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBD540&gt;</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
@@ -4170,7 +4170,7 @@
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD6494D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBD460&gt;</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">

--- a/F_dataset/DUD-E/MAPK2/MAPK2_preprocessing/MAPK2_g1.xlsx
+++ b/F_dataset/DUD-E/MAPK2/MAPK2_preprocessing/MAPK2_g1.xlsx
@@ -548,7 +548,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CHEMBL561334</t>
+          <t>CHEMBL555205</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -556,12 +556,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C[C@H]1CNc2c(sc3ccc4ncccc4c23)C(=O)N1</t>
+          <t>COc1ccc2sc3c(c2c1)NC[C@@H](CN)NC3=O</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>C[C@H]1CNc2c(sc3ccc4ncccc4c23)C(=O)N1</t>
+          <t>COc1ccc2sc3c(c2c1)NC[C@@H](CN)NC3=O</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -575,25 +575,25 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>283.36</v>
+        <v>277.35</v>
       </c>
       <c r="H2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2" t="n">
+        <v>4</v>
+      </c>
+      <c r="J2" t="n">
         <v>2</v>
       </c>
-      <c r="I2" t="n">
-        <v>3</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
       <c r="K2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M2" t="n">
-        <v>54.02</v>
+        <v>76.38</v>
       </c>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
@@ -604,7 +604,7 @@
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FB93E60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058B38B0&gt;</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -672,7 +672,7 @@
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FB93DF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058B3760&gt;</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -684,7 +684,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CHEMBL403286</t>
+          <t>CHEMBL557318</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -692,12 +692,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CC1CNC(=O)c2cc3ccc(C(=O)Nc4nc(C(=O)NC5CCN(Cc6ccccc6)CC5)cs4)cc3n21</t>
+          <t>C[C@H]1CNc2c(sc3ccc4occc4c23)C(=O)N1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CC1CNC(=O)c2cc3ccc(C(=O)Nc4nc(C(=O)NC5CCN(Cc6ccccc6)CC5)cs4)cc3n21</t>
+          <t>C[C@H]1CNc2c(sc3ccc4occc4c23)C(=O)N1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -711,25 +711,25 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>542.67</v>
+        <v>272.33</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M4" t="n">
-        <v>108.36</v>
+        <v>54.27</v>
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
@@ -740,7 +740,7 @@
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FB93D80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058B36F0&gt;</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -752,7 +752,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CHEMBL557318</t>
+          <t>CHEMBL562754</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -760,12 +760,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C[C@H]1CNc2c(sc3ccc4occc4c23)C(=O)N1</t>
+          <t>C[C@H]1CNc2c(sc3ccc4c(c23)CCO4)C(=O)N1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>C[C@H]1CNc2c(sc3ccc4occc4c23)C(=O)N1</t>
+          <t>C[C@H]1CNc2c(sc3ccc4c(c23)CCO4)C(=O)N1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -779,7 +779,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>272.33</v>
+        <v>274.34</v>
       </c>
       <c r="H5" t="n">
         <v>2</v>
@@ -794,10 +794,10 @@
         <v>4</v>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M5" t="n">
-        <v>54.27</v>
+        <v>50.36</v>
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
@@ -808,7 +808,7 @@
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FB93D10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058B3530&gt;</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CHEMBL562754</t>
+          <t>CHEMBL226351</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -828,12 +828,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C[C@H]1CNc2c(sc3ccc4c(c23)CCO4)C(=O)N1</t>
+          <t>O=C1NCCc2[nH]c(-c3ccnc(-c4cc5ccccc5s4)c3)cc21</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>C[C@H]1CNc2c(sc3ccc4c(c23)CCO4)C(=O)N1</t>
+          <t>O=C1NCCc2[nH]c(-c3ccnc(-c4cc5ccccc5s4)c3)cc21</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -847,25 +847,25 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>274.34</v>
+        <v>345.43</v>
       </c>
       <c r="H6" t="n">
         <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>50.36</v>
+        <v>57.78</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
@@ -876,7 +876,7 @@
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FB93CA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058B34C0&gt;</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -888,7 +888,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CHEMBL226351</t>
+          <t>CHEMBL162</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -896,12 +896,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>O=C1NCCc2[nH]c(-c3ccnc(-c4cc5ccccc5s4)c3)cc21</t>
+          <t>CN[C@@H]1CC2O[C@@](C)([C@@H]1OC)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)C(=O)NC4</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>O=C1NCCc2[nH]c(-c3ccnc(-c4cc5ccccc5s4)c3)cc21</t>
+          <t>CN[C@@H]1CC2O[C@@](C)([C@@H]1OC)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)C(=O)NC4</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -915,25 +915,25 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>345.43</v>
+        <v>466.54</v>
       </c>
       <c r="H7" t="n">
         <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
         <v>2</v>
       </c>
       <c r="K7" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M7" t="n">
-        <v>57.78</v>
+        <v>69.45</v>
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
@@ -944,7 +944,7 @@
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FB93C30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058B3220&gt;</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -956,7 +956,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CHEMBL162</t>
+          <t>CHEMBL510545</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -964,12 +964,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CN[C@@H]1CC2O[C@@](C)([C@@H]1OC)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)C(=O)NC4</t>
+          <t>O=C1NCCc2[nH]c(-c3ccnc(/C=C/c4ccccc4)c3)cc21</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CN[C@@H]1CC2O[C@@](C)([C@@H]1OC)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)C(=O)NC4</t>
+          <t>O=C1NCCc2[nH]c(-c3ccnc(/C=C/c4ccccc4)c3)cc21</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -983,25 +983,25 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>466.54</v>
+        <v>315.38</v>
       </c>
       <c r="H8" t="n">
         <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M8" t="n">
-        <v>69.45</v>
+        <v>57.78</v>
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FB93BC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058B31B0&gt;</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CHEMBL246300</t>
+          <t>CHEMBL541448</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1032,12 +1032,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CC1CNC(=O)c2[nH]c3ccc(C(=O)Nc4nc(C(=O)NC5CCCCC5)cs4)cc3c21</t>
+          <t>COc1cccc(COc2ccc3sc4c(c3c2)NC[C@@H](C)NC4=O)c1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>CC1CNC(=O)c2[nH]c3ccc(C(=O)Nc4nc(C(=O)NC5CCCCC5)cs4)cc3c21</t>
+          <t>COc1cccc(COc2ccc3sc4c(c3c2)NC[C@@H](C)NC4=O)c1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>451.55</v>
+        <v>368.46</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
         <v>4</v>
@@ -1063,13 +1063,13 @@
         <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L9" t="n">
         <v>3</v>
       </c>
       <c r="M9" t="n">
-        <v>115.98</v>
+        <v>59.59</v>
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
@@ -1080,7 +1080,7 @@
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FB93A00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058B3140&gt;</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -1092,7 +1092,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CHEMBL510545</t>
+          <t>CHEMBL181212</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1100,12 +1100,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>O=C1NCCc2[nH]c(-c3ccnc(/C=C/c4ccccc4)c3)cc21</t>
+          <t>N#CC1=C(N)C2Cc3cc(O)c(O)cc3OC2C=C1N</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>O=C1NCCc2[nH]c(-c3ccnc(/C=C/c4ccccc4)c3)cc21</t>
+          <t>N#CC1=C(N)C2Cc3cc(O)c(O)cc3OC2C=C1N</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1119,25 +1119,25 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>315.38</v>
+        <v>271.28</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>57.78</v>
+        <v>125.52</v>
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
@@ -1148,7 +1148,7 @@
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FB93990&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058B2E30&gt;</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -1160,7 +1160,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CHEMBL610780</t>
+          <t>CHEMBL562194</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1168,12 +1168,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>COc1ccc(-n2cc(-c3ccc4c(c3)C(=O)NCC4)c(N)n2)cc1</t>
+          <t>C[C@H]1CNc2c(sc3ccc4oc(-c5ccccc5)cc4c23)C(=O)N1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>COc1ccc(-n2cc(-c3ccc4c(c3)C(=O)NCC4)c(N)n2)cc1</t>
+          <t>C[C@H]1CNc2c(sc3ccc4oc(-c5ccccc5)cc4c23)C(=O)N1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1187,25 +1187,25 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>334.38</v>
+        <v>348.43</v>
       </c>
       <c r="H11" t="n">
         <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
-        <v>82.17</v>
+        <v>54.27</v>
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
@@ -1216,7 +1216,7 @@
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FB938B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058B2C70&gt;</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CHEMBL541448</t>
+          <t>CHEMBL461316</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1236,12 +1236,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>COc1cccc(COc2ccc3sc4c(c3c2)NC[C@@H](C)NC4=O)c1</t>
+          <t>CCN(CC)Cc1ccc(/C=C/c2cc(-c3cc4c(=O)[nH]cnc4[nH]3)ccn2)cc1</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>COc1cccc(COc2ccc3sc4c(c3c2)NC[C@@H](C)NC4=O)c1</t>
+          <t>CCN(CC)Cc1ccc(/C=C/c2cc(-c3cc4c(=O)[nH]cnc4[nH]3)ccn2)cc1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1255,7 +1255,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>368.46</v>
+        <v>399.5</v>
       </c>
       <c r="H12" t="n">
         <v>2</v>
@@ -1264,16 +1264,16 @@
         <v>4</v>
       </c>
       <c r="J12" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K12" t="n">
         <v>4</v>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>59.59</v>
+        <v>77.67</v>
       </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
@@ -1284,7 +1284,7 @@
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FB93840&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058B2C00&gt;</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
@@ -1296,7 +1296,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CHEMBL181212</t>
+          <t>CHEMBL600081</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1304,12 +1304,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>N#CC1=C(N)C2Cc3cc(O)c(O)cc3OC2C=C1N</t>
+          <t>Nc1nccc(Nc2ccc3[nH]nc(-c4cc5ccccc5s4)c3c2)n1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>N#CC1=C(N)C2Cc3cc(O)c(O)cc3OC2C=C1N</t>
+          <t>Nc1nccc(Nc2ccc3[nH]nc(-c4cc5ccccc5s4)c3c2)n1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1323,25 +1323,25 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>271.28</v>
+        <v>358.43</v>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M13" t="n">
-        <v>125.52</v>
+        <v>92.51000000000001</v>
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
@@ -1352,7 +1352,7 @@
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FB936F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058B2B90&gt;</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
@@ -1364,7 +1364,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CHEMBL562194</t>
+          <t>CHEMBL592288</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1372,12 +1372,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C[C@H]1CNc2c(sc3ccc4oc(-c5ccccc5)cc4c23)C(=O)N1</t>
+          <t>Nc1nccc(Nc2ccc3[nH]nc(-c4ccc[nH]4)c3c2)n1</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>C[C@H]1CNc2c(sc3ccc4oc(-c5ccccc5)cc4c23)C(=O)N1</t>
+          <t>Nc1nccc(Nc2ccc3[nH]nc(-c4ccc[nH]4)c3c2)n1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1391,25 +1391,25 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>348.43</v>
+        <v>291.32</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L14" t="n">
         <v>4</v>
       </c>
       <c r="M14" t="n">
-        <v>54.27</v>
+        <v>108.3</v>
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
@@ -1420,7 +1420,7 @@
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FB93610&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058B2A40&gt;</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
@@ -1432,7 +1432,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CHEMBL600081</t>
+          <t>CHEMBL455156</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1440,12 +1440,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Nc1nccc(Nc2ccc3[nH]nc(-c4cc5ccccc5s4)c3c2)n1</t>
+          <t>O=C(Nc1cc(-c2cc3c(=O)[nH]cnc3[nH]2)ccn1)c1ccc(C2CCCC2)cc1</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Nc1nccc(Nc2ccc3[nH]nc(-c4cc5ccccc5s4)c3c2)n1</t>
+          <t>O=C(Nc1cc(-c2cc3c(=O)[nH]cnc3[nH]2)ccn1)c1ccc(C2CCCC2)cc1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1459,25 +1459,25 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>358.43</v>
+        <v>399.45</v>
       </c>
       <c r="H15" t="n">
         <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K15" t="n">
         <v>5</v>
       </c>
       <c r="L15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M15" t="n">
-        <v>92.51000000000001</v>
+        <v>103.53</v>
       </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
@@ -1488,7 +1488,7 @@
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FB935A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058B29D0&gt;</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -1500,7 +1500,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CHEMBL592288</t>
+          <t>CHEMBL255605</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1508,12 +1508,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Nc1nccc(Nc2ccc3[nH]nc(-c4ccc[nH]4)c3c2)n1</t>
+          <t>NCC1Cc2c([nH]c3ccc(C(=O)Nc4cccnc4)cc23)C(=O)N1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Nc1nccc(Nc2ccc3[nH]nc(-c4ccc[nH]4)c3c2)n1</t>
+          <t>NCC1Cc2c([nH]c3ccc(C(=O)Nc4cccnc4)cc23)C(=O)N1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>291.32</v>
+        <v>335.37</v>
       </c>
       <c r="H16" t="n">
         <v>4</v>
       </c>
       <c r="I16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J16" t="n">
         <v>3</v>
@@ -1542,10 +1542,10 @@
         <v>4</v>
       </c>
       <c r="L16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M16" t="n">
-        <v>108.3</v>
+        <v>112.9</v>
       </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
@@ -1556,7 +1556,7 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FB933E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058B25E0&gt;</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
@@ -1568,7 +1568,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CHEMBL455156</t>
+          <t>CHEMBL255210</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1576,12 +1576,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>O=C(Nc1cc(-c2cc3c(=O)[nH]cnc3[nH]2)ccn1)c1ccc(C2CCCC2)cc1</t>
+          <t>O=C(Nc1cccnc1)c1ccc2cc3n(c2c1)CCCNC3=O</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>O=C(Nc1cc(-c2cc3c(=O)[nH]cnc3[nH]2)ccn1)c1ccc(C2CCCC2)cc1</t>
+          <t>O=C(Nc1cccnc1)c1ccc2cc3n(c2c1)CCCNC3=O</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1595,25 +1595,25 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>399.45</v>
+        <v>320.35</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M17" t="n">
-        <v>103.53</v>
+        <v>76.02</v>
       </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
@@ -1624,7 +1624,7 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FB93300&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058B2420&gt;</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
@@ -1636,7 +1636,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CHEMBL255605</t>
+          <t>CHEMBL392876</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1644,12 +1644,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NCC1Cc2c([nH]c3ccc(C(=O)Nc4cccnc4)cc23)C(=O)N1</t>
+          <t>COc1ccc2[nH]c3c(c2c1)C1CCN(C1)C3C(=O)O</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NCC1Cc2c([nH]c3ccc(C(=O)Nc4cccnc4)cc23)C(=O)N1</t>
+          <t>COc1ccc2[nH]c3c(c2c1)C1CCN(C1)C3C(=O)O</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1663,25 +1663,25 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>335.37</v>
+        <v>272.3</v>
       </c>
       <c r="H18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
         <v>4</v>
       </c>
       <c r="J18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K18" t="n">
         <v>4</v>
       </c>
       <c r="L18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M18" t="n">
-        <v>112.9</v>
+        <v>65.56</v>
       </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
@@ -1692,7 +1692,7 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FB93290&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058B1D20&gt;</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -1704,7 +1704,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CHEMBL392876</t>
+          <t>CHEMBL590834</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1712,12 +1712,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>COc1ccc2[nH]c3c(c2c1)C1CCN(C1)C3C(=O)O</t>
+          <t>Nc1nccc(Nc2ccc3[nH]nc(-c4ccc5ccccc5c4)c3c2)n1</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>COc1ccc2[nH]c3c(c2c1)C1CCN(C1)C3C(=O)O</t>
+          <t>Nc1nccc(Nc2ccc3[nH]nc(-c4ccc5ccccc5c4)c3c2)n1</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1731,25 +1731,25 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>272.3</v>
+        <v>352.4</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M19" t="n">
-        <v>65.56</v>
+        <v>92.51000000000001</v>
       </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
@@ -1760,7 +1760,7 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FB93F40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058B1AF0&gt;</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
@@ -1772,7 +1772,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CHEMBL590834</t>
+          <t>CHEMBL460091</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1780,12 +1780,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Nc1nccc(Nc2ccc3[nH]nc(-c4ccc5ccccc5c4)c3c2)n1</t>
+          <t>O=c1[nH]c(Cc2ccccc2)nc2[nH]c(-c3ccnc(/C=C/c4ccccc4)c3)cc12</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Nc1nccc(Nc2ccc3[nH]nc(-c4ccc5ccccc5c4)c3c2)n1</t>
+          <t>O=c1[nH]c(Cc2ccccc2)nc2[nH]c(-c3ccnc(/C=C/c4ccccc4)c3)cc12</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1799,16 +1799,16 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>352.4</v>
+        <v>404.47</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K20" t="n">
         <v>5</v>
@@ -1817,7 +1817,7 @@
         <v>5</v>
       </c>
       <c r="M20" t="n">
-        <v>92.51000000000001</v>
+        <v>74.43000000000001</v>
       </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
@@ -1828,7 +1828,7 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FB93ED0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058B19A0&gt;</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
@@ -1840,7 +1840,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CHEMBL460091</t>
+          <t>CHEMBL599479</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1848,12 +1848,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>O=c1[nH]c(Cc2ccccc2)nc2[nH]c(-c3ccnc(/C=C/c4ccccc4)c3)cc12</t>
+          <t>COc1ccc(-n2cc(-c3ccc4c(c3)C(=O)NCCO4)c(N)n2)cc1</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>O=c1[nH]c(Cc2ccccc2)nc2[nH]c(-c3ccnc(/C=C/c4ccccc4)c3)cc12</t>
+          <t>COc1ccc(-n2cc(-c3ccc4c(c3)C(=O)NCCO4)c(N)n2)cc1</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1867,25 +1867,25 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>404.47</v>
+        <v>350.38</v>
       </c>
       <c r="H21" t="n">
         <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M21" t="n">
-        <v>74.43000000000001</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
@@ -1896,7 +1896,7 @@
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FB93B50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058B1770&gt;</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -1908,7 +1908,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CHEMBL599479</t>
+          <t>CHEMBL511410</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1916,12 +1916,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>COc1ccc(-n2cc(-c3ccc4c(c3)C(=O)NCCO4)c(N)n2)cc1</t>
+          <t>NC(=O)C(Nc1c(Nc2ccncc2)c(=O)c1=O)c1cccc(O)c1</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>COc1ccc(-n2cc(-c3ccc4c(c3)C(=O)NCCO4)c(N)n2)cc1</t>
+          <t>NC(=O)C(Nc1c(Nc2ccncc2)c(=O)c1=O)c1cccc(O)c1</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1935,25 +1935,25 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>350.38</v>
+        <v>338.32</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J22" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L22" t="n">
         <v>3</v>
       </c>
       <c r="M22" t="n">
-        <v>91.40000000000001</v>
+        <v>134.41</v>
       </c>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
@@ -1964,7 +1964,7 @@
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FB93AE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058B1700&gt;</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
@@ -1976,7 +1976,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CHEMBL511410</t>
+          <t>CHEMBL571897</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1984,12 +1984,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>NC(=O)C(Nc1c(Nc2ccncc2)c(=O)c1=O)c1cccc(O)c1</t>
+          <t>COc1ccc2sc3c(c2c1)CCCNC3=O</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NC(=O)C(Nc1c(Nc2ccncc2)c(=O)c1=O)c1cccc(O)c1</t>
+          <t>COc1ccc2sc3c(c2c1)CCCNC3=O</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2003,25 +2003,25 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>338.32</v>
+        <v>247.32</v>
       </c>
       <c r="H23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J23" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
         <v>3</v>
       </c>
       <c r="L23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M23" t="n">
-        <v>134.41</v>
+        <v>38.33</v>
       </c>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
@@ -2032,7 +2032,7 @@
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FB93A70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058B14D0&gt;</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
@@ -2044,7 +2044,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CHEMBL571897</t>
+          <t>CHEMBL524266</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -2052,12 +2052,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>COc1ccc2sc3c(c2c1)CCCNC3=O</t>
+          <t>Nc1nccc(-c2cc3c([nH]2)[C@@H](CCF)CNC3=O)n1</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>COc1ccc2sc3c(c2c1)CCCNC3=O</t>
+          <t>Nc1nccc(-c2cc3c([nH]2)[C@@H](CCF)CNC3=O)n1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2071,16 +2071,16 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>247.32</v>
+        <v>275.29</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K24" t="n">
         <v>3</v>
@@ -2089,7 +2089,7 @@
         <v>2</v>
       </c>
       <c r="M24" t="n">
-        <v>38.33</v>
+        <v>96.69</v>
       </c>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
@@ -2100,7 +2100,7 @@
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FB93920&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058B3D80&gt;</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
@@ -2112,7 +2112,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CHEMBL524266</t>
+          <t>CHEMBL557101</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2120,12 +2120,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Nc1nccc(-c2cc3c([nH]2)[C@@H](CCF)CNC3=O)n1</t>
+          <t>CC(=O)C1=CCn2c3ccccc3c3c4c(c5c6ccccc6n(c5c32)C1)C(=O)NC4=O</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Nc1nccc(-c2cc3c([nH]2)[C@@H](CCF)CNC3=O)n1</t>
+          <t>CC(=O)C1=CCn2c3ccccc3c3c4c(c5c6ccccc6n(c5c32)C1)C(=O)NC4=O</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2139,25 +2139,25 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>275.29</v>
+        <v>419.44</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K25" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M25" t="n">
-        <v>96.69</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
@@ -2168,7 +2168,7 @@
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FB937D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058B3D10&gt;</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
@@ -2180,7 +2180,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CHEMBL557101</t>
+          <t>CHEMBL455396</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -2188,12 +2188,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CC(=O)C1=CCn2c3ccccc3c3c4c(c5c6ccccc6n(c5c32)C1)C(=O)NC4=O</t>
+          <t>COc1ccc(-c2cc(-c3cc4c(=O)[nH]cnc4[nH]3)ccn2)cc1</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>CC(=O)C1=CCn2c3ccccc3c3c4c(c5c6ccccc6n(c5c32)C1)C(=O)NC4=O</t>
+          <t>COc1ccc(-c2cc(-c3cc4c(=O)[nH]cnc4[nH]3)ccn2)cc1</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2207,25 +2207,25 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>419.44</v>
+        <v>318.34</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K26" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M26" t="n">
-        <v>73.09999999999999</v>
+        <v>83.66</v>
       </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
@@ -2236,7 +2236,7 @@
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FB93760&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058B3300&gt;</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
@@ -2248,7 +2248,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CHEMBL455396</t>
+          <t>CHEMBL178413</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -2256,12 +2256,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>COc1ccc(-c2cc(-c3cc4c(=O)[nH]cnc4[nH]3)ccn2)cc1</t>
+          <t>N#CC1=C(N)C2Cc3cc(O)c(C4COCCO4)cc3OC2C=C1N</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>COc1ccc(-c2cc(-c3cc4c(=O)[nH]cnc4[nH]3)ccn2)cc1</t>
+          <t>N#CC1=C(N)C2Cc3cc(O)c(C4COCCO4)cc3OC2C=C1N</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2275,25 +2275,25 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>318.34</v>
+        <v>341.37</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I27" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K27" t="n">
         <v>4</v>
       </c>
       <c r="L27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M27" t="n">
-        <v>83.66</v>
+        <v>123.75</v>
       </c>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
@@ -2304,7 +2304,7 @@
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FB93680&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058B23B0&gt;</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
@@ -2372,7 +2372,7 @@
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FB93530&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058B1F50&gt;</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
@@ -2440,7 +2440,7 @@
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FB934C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058B1850&gt;</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
@@ -2508,7 +2508,7 @@
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FB93450&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058B13F0&gt;</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
@@ -2520,7 +2520,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CHEMBL1089865</t>
+          <t>CHEMBL256194</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -2528,12 +2528,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Cc1ccc(C(=O)NC2CC2)cc1-c1cc2cnn(-c3c(F)cccc3F)c2n(C)c1=O</t>
+          <t>CC1CNC(=O)c2cc3ccc(C(=O)Nc4nc(C(=O)NC5CCN(CC(C)(C)C)CC5)cs4)cc3n21</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Cc1ccc(C(=O)NC2CC2)cc1-c1cc2cnn(-c3c(F)cccc3F)c2n(C)c1=O</t>
+          <t>CC1CNC(=O)c2cc3ccc(C(=O)Nc4nc(C(=O)NC5CCN(CC(C)(C)C)CC5)cs4)cc3n21</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2547,25 +2547,25 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>434.45</v>
+        <v>522.6799999999999</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K31" t="n">
         <v>5</v>
       </c>
       <c r="L31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M31" t="n">
-        <v>68.92</v>
+        <v>108.36</v>
       </c>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
@@ -2576,7 +2576,7 @@
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FB93370&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058B3AE0&gt;</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
@@ -2588,7 +2588,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CHEMBL388530</t>
+          <t>CHEMBL1089865</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -2596,12 +2596,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>O=C(NCc1ccccc1)c1ccc(-c2cc(-c3cc4c([nH]3)CCNC4=O)ccn2)cc1</t>
+          <t>Cc1ccc(C(=O)NC2CC2)cc1-c1cc2cnn(-c3c(F)cccc3F)c2n(C)c1=O</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>O=C(NCc1ccccc1)c1ccc(-c2cc(-c3cc4c([nH]3)CCNC4=O)ccn2)cc1</t>
+          <t>Cc1ccc(C(=O)NC2CC2)cc1-c1cc2cnn(-c3c(F)cccc3F)c2n(C)c1=O</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2615,16 +2615,16 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>422.49</v>
+        <v>434.45</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>3</v>
       </c>
       <c r="J32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K32" t="n">
         <v>5</v>
@@ -2633,7 +2633,7 @@
         <v>4</v>
       </c>
       <c r="M32" t="n">
-        <v>86.88</v>
+        <v>68.92</v>
       </c>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
@@ -2644,7 +2644,7 @@
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FB90270&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058B3A70&gt;</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
@@ -2656,7 +2656,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CHEMBL461139</t>
+          <t>CHEMBL549915</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -2664,12 +2664,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>O=c1[nH]cnc2[nH]c(-c3ccnc(/C=C/c4ccc(CN5CCOCC5)cc4)c3)cc12</t>
+          <t>Cc1ccncc1-c1ccc2c(ccc3sc4c(c32)NC[C@H](C)NC4=O)n1</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>O=c1[nH]cnc2[nH]c(-c3ccnc(/C=C/c4ccc(CN5CCOCC5)cc4)c3)cc12</t>
+          <t>Cc1ccncc1-c1ccc2c(ccc3sc4c(c32)NC[C@H](C)NC4=O)n1</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2683,16 +2683,16 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>413.48</v>
+        <v>374.47</v>
       </c>
       <c r="H33" t="n">
         <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J33" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K33" t="n">
         <v>5</v>
@@ -2701,7 +2701,7 @@
         <v>4</v>
       </c>
       <c r="M33" t="n">
-        <v>86.90000000000001</v>
+        <v>66.91</v>
       </c>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
@@ -2712,7 +2712,7 @@
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FB93220&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058B3A00&gt;</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
@@ -2724,7 +2724,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CHEMBL225973</t>
+          <t>CHEMBL388530</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -2732,12 +2732,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>O=C1NCCc2[nH]c(-c3ccnc(-c4ccncc4)c3)cc21</t>
+          <t>O=C(NCc1ccccc1)c1ccc(-c2cc(-c3cc4c([nH]3)CCNC4=O)ccn2)cc1</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>O=C1NCCc2[nH]c(-c3ccnc(-c4ccncc4)c3)cc21</t>
+          <t>O=C(NCc1ccccc1)c1ccc(-c2cc(-c3cc4c([nH]3)CCNC4=O)ccn2)cc1</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2751,25 +2751,25 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>290.33</v>
+        <v>422.49</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I34" t="n">
         <v>3</v>
       </c>
       <c r="J34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M34" t="n">
-        <v>70.67</v>
+        <v>86.88</v>
       </c>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
@@ -2780,7 +2780,7 @@
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBE030&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058B35A0&gt;</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
@@ -2792,7 +2792,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CHEMBL1208951</t>
+          <t>CHEMBL226403</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -2800,12 +2800,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CN1CCN(c2ccc(Nc3ccnc4ccc(-c5ccc(Cl)cc5)cc34)cc2)CC1</t>
+          <t>O=C1NCCc2[nH]c(-c3ccnc(-c4cnc5ccccc5c4)c3)cc21</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>CN1CCN(c2ccc(Nc3ccnc4ccc(-c5ccc(Cl)cc5)cc34)cc2)CC1</t>
+          <t>O=C1NCCc2[nH]c(-c3ccnc(-c4cnc5ccccc5c4)c3)cc21</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2819,16 +2819,16 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>428.97</v>
+        <v>340.39</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K35" t="n">
         <v>5</v>
@@ -2837,7 +2837,7 @@
         <v>4</v>
       </c>
       <c r="M35" t="n">
-        <v>31.4</v>
+        <v>70.67</v>
       </c>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
@@ -2848,7 +2848,7 @@
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBDE70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058B2F80&gt;</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
@@ -2860,7 +2860,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>CHEMBL604510</t>
+          <t>CHEMBL564076</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -2868,12 +2868,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Cn1ccc2ccc(-c3cccc(-n4cc(-c5ccc6c(c5)CCNC6=O)c(N)n4)c3)cc21</t>
+          <t>C[C@H]1CNc2c(sc3ccc4nc(-c5ccccc5)ccc4c23)C(=O)N1</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Cn1ccc2ccc(-c3cccc(-n4cc(-c5ccc6c(c5)CCNC6=O)c(N)n4)c3)cc21</t>
+          <t>C[C@H]1CNc2c(sc3ccc4nc(-c5ccccc5)ccc4c23)C(=O)N1</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>433.52</v>
+        <v>359.45</v>
       </c>
       <c r="H36" t="n">
         <v>2</v>
@@ -2896,16 +2896,16 @@
         <v>3</v>
       </c>
       <c r="J36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K36" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M36" t="n">
-        <v>77.87</v>
+        <v>54.02</v>
       </c>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
@@ -2916,7 +2916,7 @@
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBDE00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058B26C0&gt;</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
@@ -2928,7 +2928,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>CHEMBL402957</t>
+          <t>CHEMBL553397</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -2936,12 +2936,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>NC[C@@H]1Cn2c(cc3ccc(C(=O)Nc4cccnc4)cc32)C(=O)N1</t>
+          <t>COc1ccc2sc3c(c2c1)NC[C@@H](CO)NC3=O</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NC[C@@H]1Cn2c(cc3ccc(C(=O)Nc4cccnc4)cc32)C(=O)N1</t>
+          <t>COc1ccc2sc3c(c2c1)NC[C@@H](CO)NC3=O</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2955,7 +2955,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>335.37</v>
+        <v>278.33</v>
       </c>
       <c r="H37" t="n">
         <v>3</v>
@@ -2964,16 +2964,16 @@
         <v>4</v>
       </c>
       <c r="J37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M37" t="n">
-        <v>102.04</v>
+        <v>70.59</v>
       </c>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
@@ -2984,7 +2984,7 @@
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBDD90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058B15B0&gt;</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
@@ -2996,7 +2996,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>CHEMBL551534</t>
+          <t>CHEMBL226261</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -3004,12 +3004,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>COc1ccc2sc3c(c2c1)NC[C@@H](CNCc1ccccc1)NC3=O</t>
+          <t>O=C(NC1CCCCC1)c1ccc(-c2cc(-c3cc4c([nH]3)CCNC4=O)ccn2)cc1</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>COc1ccc2sc3c(c2c1)NC[C@@H](CNCc1ccccc1)NC3=O</t>
+          <t>O=C(NC1CCCCC1)c1ccc(-c2cc(-c3cc4c([nH]3)CCNC4=O)ccn2)cc1</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -3023,25 +3023,25 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>367.47</v>
+        <v>414.51</v>
       </c>
       <c r="H38" t="n">
         <v>3</v>
       </c>
       <c r="I38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L38" t="n">
         <v>3</v>
       </c>
       <c r="M38" t="n">
-        <v>62.39</v>
+        <v>86.88</v>
       </c>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
@@ -3052,7 +3052,7 @@
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBDD20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058B3450&gt;</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
@@ -3064,7 +3064,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>CHEMBL246910</t>
+          <t>CHEMBL270150</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -3072,12 +3072,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CC1CNC(=O)c2[nH]c3ccc(C(=O)Nc4cccc(C#N)c4)cc3c21</t>
+          <t>CC1(C)CNC(=O)c2cc3ccc(C(=O)Nc4nc(C(=O)NC5CCCCC5)cs4)cc3n21</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>CC1CNC(=O)c2[nH]c3ccc(C(=O)Nc4cccc(C#N)c4)cc3c21</t>
+          <t>CC1(C)CNC(=O)c2cc3ccc(C(=O)Nc4nc(C(=O)NC5CCCCC5)cs4)cc3n21</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -3091,25 +3091,25 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>344.37</v>
+        <v>465.58</v>
       </c>
       <c r="H39" t="n">
         <v>3</v>
       </c>
       <c r="I39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L39" t="n">
         <v>3</v>
       </c>
       <c r="M39" t="n">
-        <v>97.78</v>
+        <v>105.12</v>
       </c>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
@@ -3120,7 +3120,7 @@
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBDCB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058B3060&gt;</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
@@ -3132,7 +3132,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>CHEMBL257834</t>
+          <t>CHEMBL246090</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -3140,12 +3140,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CC(C)(C)CN1CCC(NC(=O)c2csc(NC(=O)c3ccc4cc5n(c4c3)C3(CCC3)CNC5=O)n2)CC1</t>
+          <t>CC1CNC(=O)c2[nH]c3ccc(C(=O)Nc4nc(C(=O)NCCC(N)=O)cs4)cc3c21</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>CC(C)(C)CN1CCC(NC(=O)c2csc(NC(=O)c3ccc4cc5n(c4c3)C3(CCC3)CNC5=O)n2)CC1</t>
+          <t>CC1CNC(=O)c2[nH]c3ccc(C(=O)Nc4nc(C(=O)NCCC(N)=O)cs4)cc3c21</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -3155,29 +3155,29 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>548.71</v>
+        <v>440.49</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I40" t="n">
         <v>5</v>
       </c>
       <c r="J40" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K40" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L40" t="n">
         <v>3</v>
       </c>
       <c r="M40" t="n">
-        <v>108.36</v>
+        <v>159.07</v>
       </c>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
@@ -3188,7 +3188,7 @@
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBDC40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058B2880&gt;</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
@@ -3200,7 +3200,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>CHEMBL552339</t>
+          <t>CHEMBL461139</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -3208,12 +3208,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>C[C@H]1CNc2c(sc3ccc4nc(-c5ccncc5)ccc4c23)C(=O)N1</t>
+          <t>O=c1[nH]cnc2[nH]c(-c3ccnc(/C=C/c4ccc(CN5CCOCC5)cc4)c3)cc12</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>C[C@H]1CNc2c(sc3ccc4nc(-c5ccncc5)ccc4c23)C(=O)N1</t>
+          <t>O=c1[nH]cnc2[nH]c(-c3ccnc(/C=C/c4ccc(CN5CCOCC5)cc4)c3)cc12</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -3223,20 +3223,20 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>360.44</v>
+        <v>413.48</v>
       </c>
       <c r="H41" t="n">
         <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J41" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K41" t="n">
         <v>5</v>
@@ -3245,7 +3245,7 @@
         <v>4</v>
       </c>
       <c r="M41" t="n">
-        <v>66.91</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBDBD0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058B2650&gt;</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
@@ -3268,7 +3268,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>CHEMBL429922</t>
+          <t>CHEMBL225973</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -3276,12 +3276,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>NCC1CNC(=O)c2cc3ccc(C(=O)Nc4nccs4)cc3n2C1</t>
+          <t>O=C1NCCc2[nH]c(-c3ccnc(-c4ccncc4)c3)cc21</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>NCC1CNC(=O)c2cc3ccc(C(=O)Nc4nccs4)cc3n2C1</t>
+          <t>O=C1NCCc2[nH]c(-c3ccnc(-c4ccncc4)c3)cc21</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -3291,20 +3291,20 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>355.42</v>
+        <v>290.33</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K42" t="n">
         <v>4</v>
@@ -3313,7 +3313,7 @@
         <v>3</v>
       </c>
       <c r="M42" t="n">
-        <v>102.04</v>
+        <v>70.67</v>
       </c>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
@@ -3324,7 +3324,7 @@
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBDB60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058B22D0&gt;</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
@@ -3336,7 +3336,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>CHEMBL2163609</t>
+          <t>CHEMBL461140</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -3344,12 +3344,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Cc1c(N[C@H]2CCCNC2)nc2ccnn2c1Nc1ccc(C(=O)NC2CCCC2)cc1</t>
+          <t>CN(C)CCOc1ccc(/C=C/c2cc(-c3cc4c(=O)[nH]cnc4[nH]3)ccn2)cc1</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Cc1c(N[C@H]2CCCNC2)nc2ccnn2c1Nc1ccc(C(=O)NC2CCCC2)cc1</t>
+          <t>CN(C)CCOc1ccc(/C=C/c2cc(-c3cc4c(=O)[nH]cnc4[nH]3)ccn2)cc1</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -3359,66 +3359,40 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>433.56</v>
+        <v>401.47</v>
       </c>
       <c r="H43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J43" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M43" t="n">
-        <v>95.38</v>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q43" t="n">
-        <v>140</v>
-      </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>CHEMBL2167126</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>Inhibition of MAPKAP-K2 using KKLNRTLSVA as substrate and [33P]-gamma-ATP after 30 mins by liquid scintillation counter</t>
-        </is>
-      </c>
-      <c r="T43" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>86.90000000000001</v>
+      </c>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBDA10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058B2260&gt;</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
@@ -3430,7 +3404,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>CHEMBL603322</t>
+          <t>CHEMBL1208951</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -3438,12 +3412,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>NC(=O)CCn1cc(-c2cc(-c3cc4ccccc4s3)c3[nH]ncc3c2)c2nc(N)ncc21</t>
+          <t>CN1CCN(c2ccc(Nc3ccnc4ccc(-c5ccc(Cl)cc5)cc34)cc2)CC1</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>NC(=O)CCn1cc(-c2cc(-c3cc4ccccc4s3)c3[nH]ncc3c2)c2nc(N)ncc21</t>
+          <t>CN1CCN(c2ccc(Nc3ccnc4ccc(-c5ccc(Cl)cc5)cc34)cc2)CC1</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -3453,66 +3427,40 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>453.53</v>
+        <v>428.97</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K44" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L44" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M44" t="n">
-        <v>128.5</v>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q44" t="n">
-        <v>41</v>
-      </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>CHEMBL1072653</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>Inhibition of MK2</t>
-        </is>
-      </c>
-      <c r="T44" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>31.4</v>
+      </c>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBD9A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058B2110&gt;</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
@@ -3524,7 +3472,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>CHEMBL3706775</t>
+          <t>CHEMBL603694</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -3532,12 +3480,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>N#Cc1c(N)cc2c(c1N)Cc1ccccc1O2</t>
+          <t>Nc1nn(-c2cccc(-c3cccc(O)c3)c2)cc1-c1ccc2c(c1)CCNC2=O</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>N#Cc1c(N)cc2c(c1N)Cc1ccccc1O2</t>
+          <t>Nc1nn(-c2cccc(-c3cccc(O)c3)c2)cc1-c1ccc2c(c1)CCNC2=O</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -3547,66 +3495,40 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>237.26</v>
+        <v>396.45</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I45" t="n">
         <v>4</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M45" t="n">
-        <v>85.06</v>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q45" t="n">
-        <v>560</v>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>CHEMBL832345</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>Concentration of 50% inhibition by compound towards mitogen activated protein kinase -activated protein kinase 2</t>
-        </is>
-      </c>
-      <c r="T45" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>93.17</v>
+      </c>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBD930&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058B2030&gt;</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
@@ -3618,7 +3540,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>CHEMBL245682</t>
+          <t>CHEMBL402957</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -3626,12 +3548,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CC1CNC(=O)c2[nH]c3ccc(C(=O)Nc4ncc(C(N)=O)s4)cc3c21</t>
+          <t>NC[C@@H]1Cn2c(cc3ccc(C(=O)Nc4cccnc4)cc32)C(=O)N1</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>CC1CNC(=O)c2[nH]c3ccc(C(=O)Nc4ncc(C(N)=O)s4)cc3c21</t>
+          <t>NC[C@@H]1Cn2c(cc3ccc(C(=O)Nc4cccnc4)cc32)C(=O)N1</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -3641,14 +3563,14 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>369.41</v>
+        <v>335.37</v>
       </c>
       <c r="H46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I46" t="n">
         <v>4</v>
@@ -3663,44 +3585,18 @@
         <v>3</v>
       </c>
       <c r="M46" t="n">
-        <v>129.97</v>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q46" t="n">
-        <v>120</v>
-      </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>CHEMBL923957</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>Inhibition of MK2 after 30 mins by DELFIA</t>
-        </is>
-      </c>
-      <c r="T46" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>102.04</v>
+      </c>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBD8C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058B1E70&gt;</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
@@ -3712,7 +3608,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>CHEMBL1783713</t>
+          <t>CHEMBL437943</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -3720,12 +3616,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CC(C)(C)NC(=O)Nc1ccc(NC(=S)NCc2nc(C3CC3)cnc2N)cc1</t>
+          <t>CC1CNC(=O)c2[nH]c3ccc(C(=O)Nc4cccnc4)cc3c21</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>CC(C)(C)NC(=O)Nc1ccc(NC(=S)NCc2nc(C3CC3)cnc2N)cc1</t>
+          <t>CC1CNC(=O)c2[nH]c3ccc(C(=O)Nc4cccnc4)cc3c21</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -3735,66 +3631,40 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>413.55</v>
+        <v>320.35</v>
       </c>
       <c r="H47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I47" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M47" t="n">
-        <v>116.99</v>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q47" t="n">
-        <v>83</v>
-      </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>CHEMBL1786602</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>Inhibition of MK2 using biotin-LCAYSRALSRQLSSGVSEIRH substrate</t>
-        </is>
-      </c>
-      <c r="T47" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>86.88</v>
+      </c>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBD700&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058B1C40&gt;</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
@@ -3806,7 +3676,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>CHEMBL1801311</t>
+          <t>CHEMBL551534</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -3814,12 +3684,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Cn1c2c(c3c1C1(CNC1)CNC3=O)CCc1cnc(-c3ccccc3F)cc1-2</t>
+          <t>COc1ccc2sc3c(c2c1)NC[C@@H](CNCc1ccccc1)NC3=O</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Cn1c2c(c3c1C1(CNC1)CNC3=O)CCc1cnc(-c3ccccc3F)cc1-2</t>
+          <t>COc1ccc2sc3c(c2c1)NC[C@@H](CNCc1ccccc1)NC3=O</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -3829,66 +3699,40 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>388.45</v>
+        <v>367.47</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J48" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K48" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L48" t="n">
         <v>3</v>
       </c>
       <c r="M48" t="n">
-        <v>58.95</v>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q48" t="n">
-        <v>20</v>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>CHEMBL1805885</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>Inhibition of human MK2 using biotinyl-AYSRALSRQLSSGVSEIRCOOH as substrate after 45 mins by FRET analysis</t>
-        </is>
-      </c>
-      <c r="T48" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>62.39</v>
+      </c>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBD690&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058B1BD0&gt;</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
@@ -3900,7 +3744,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>CHEMBL1801314</t>
+          <t>CHEMBL403258</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -3908,12 +3752,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CNCc1[nH]c2c(ccc3cnc(/C=C/c4ccccc4)cc32)c1C(=O)O</t>
+          <t>O=C(Nc1nc(C(=O)NC2CCN(Cc3ccccc3)CC2)cs1)c1ccc2cc3n(c2c1)C1(CCC1)CNC3=O</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>CNCc1[nH]c2c(ccc3cnc(/C=C/c4ccccc4)cc32)c1C(=O)O</t>
+          <t>O=C(Nc1nc(C(=O)NC2CCN(Cc3ccccc3)CC2)cs1)c1ccc2cc3n(c2c1)C1(CCC1)CNC3=O</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -3923,66 +3767,40 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>357.41</v>
+        <v>568.7</v>
       </c>
       <c r="H49" t="n">
         <v>3</v>
       </c>
       <c r="I49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J49" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K49" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L49" t="n">
         <v>4</v>
       </c>
       <c r="M49" t="n">
-        <v>78.01000000000001</v>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q49" t="n">
-        <v>60</v>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>CHEMBL1805901</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>Inhibition of human MK2 using hsp27 peptide biotinyl-AYSRALSRQLSSGVSEIRCOOH as substrate after 45 mins by FRET assay</t>
-        </is>
-      </c>
-      <c r="T49" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>108.36</v>
+      </c>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBD5B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058B18C0&gt;</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
@@ -3994,7 +3812,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>CHEMBL2017463</t>
+          <t>CHEMBL590109</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -4002,12 +3820,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Cn1ccnc1CN(C(=O)c1ccc(-c2ccc(Cl)cc2)o1)c1ccc(N2CCNCC2)cc1</t>
+          <t>NCCn1cc(-c2cc(-c3cc4ccccc4s3)c3[nH]ncc3c2)c2nc(N)ncc21</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Cn1ccnc1CN(C(=O)c1ccc(-c2ccc(Cl)cc2)o1)c1ccc(N2CCNCC2)cc1</t>
+          <t>NCCn1cc(-c2cc(-c3cc4ccccc4s3)c3[nH]ncc3c2)c2nc(N)ncc21</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -4017,66 +3835,40 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>475.98</v>
+        <v>425.52</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I50" t="n">
         <v>5</v>
       </c>
       <c r="J50" t="n">
+        <v>4</v>
+      </c>
+      <c r="K50" t="n">
         <v>6</v>
       </c>
-      <c r="K50" t="n">
-        <v>5</v>
-      </c>
       <c r="L50" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M50" t="n">
-        <v>66.54000000000001</v>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q50" t="n">
-        <v>100</v>
-      </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>CHEMBL2019904</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>Inhibition of MK2 using Acam peptide as substrate incubated for 30 mins prior to substrate addition measured after 10 mins using 100 uM ATP by DELFIA assay</t>
-        </is>
-      </c>
-      <c r="T50" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>111.43</v>
+      </c>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBD540&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058B1690&gt;</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
@@ -4088,7 +3880,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>CHEMBL603469</t>
+          <t>CHEMBL429922</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -4096,12 +3888,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>C[C@]12O[C@H](C[C@]1(O)CO)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)CNC4=O</t>
+          <t>NCC1CNC(=O)c2cc3ccc(C(=O)Nc4nccs4)cc3n2C1</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>C[C@]12O[C@H](C[C@]1(O)CO)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)CNC4=O</t>
+          <t>NCC1CNC(=O)c2cc3ccc(C(=O)Nc4nccs4)cc3n2C1</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -4111,11 +3903,11 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>439.47</v>
+        <v>355.42</v>
       </c>
       <c r="H51" t="n">
         <v>3</v>
@@ -4124,53 +3916,27 @@
         <v>4</v>
       </c>
       <c r="J51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K51" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M51" t="n">
-        <v>88.65000000000001</v>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>Kd</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q51" t="n">
-        <v>230</v>
-      </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>CHEMBL1244498</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>Binding affinity to MAPKAPK2</t>
-        </is>
-      </c>
-      <c r="T51" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>102.04</v>
+      </c>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBD460&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058B1620&gt;</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
